--- a/data/paper.xlsx
+++ b/data/paper.xlsx
@@ -67,16 +67,16 @@
     <t>Biaya Ongkir</t>
   </si>
   <si>
-    <t>PT. Tata Bahagia</t>
-  </si>
-  <si>
-    <t>085754173086</t>
-  </si>
-  <si>
-    <t>tatabahagia522@lasagna.email</t>
-  </si>
-  <si>
-    <t>INV/2023/32381</t>
+    <t>CV. Makmur Citra</t>
+  </si>
+  <si>
+    <t>085756551234</t>
+  </si>
+  <si>
+    <t>makmurcitra299@lasagna.email</t>
+  </si>
+  <si>
+    <t>INV/2023/19143</t>
   </si>
   <si>
     <t>07/04/2023</t>
@@ -91,7 +91,7 @@
     <t>Produk sangat kenyal</t>
   </si>
   <si>
-    <t>30000</t>
+    <t>21000</t>
   </si>
 </sst>
 </file>

--- a/data/paper.xlsx
+++ b/data/paper.xlsx
@@ -67,16 +67,16 @@
     <t>Biaya Ongkir</t>
   </si>
   <si>
-    <t>CV. Makmur Citra</t>
-  </si>
-  <si>
-    <t>085756551234</t>
-  </si>
-  <si>
-    <t>makmurcitra299@lasagna.email</t>
-  </si>
-  <si>
-    <t>INV/2023/19143</t>
+    <t>CV. Sentosa Sederhana</t>
+  </si>
+  <si>
+    <t>085797773503</t>
+  </si>
+  <si>
+    <t>sentosasederhana208@lasagna.email</t>
+  </si>
+  <si>
+    <t>INV/2023/99468</t>
   </si>
   <si>
     <t>07/04/2023</t>
